--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il15-Il15ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il15-Il15ra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H2">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I2">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J2">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.983958666666666</v>
+        <v>5.265869666666666</v>
       </c>
       <c r="N2">
-        <v>11.951876</v>
+        <v>15.797609</v>
       </c>
       <c r="O2">
-        <v>0.1637139654488446</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="P2">
-        <v>0.1637139654488447</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="Q2">
-        <v>21.35155371090489</v>
+        <v>19.87935659704244</v>
       </c>
       <c r="R2">
-        <v>192.163983398144</v>
+        <v>178.914209373382</v>
       </c>
       <c r="S2">
-        <v>0.01199875164588646</v>
+        <v>0.0157127843022724</v>
       </c>
       <c r="T2">
-        <v>0.01199875164588646</v>
+        <v>0.0157127843022724</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H3">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I3">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J3">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>23.15168</v>
       </c>
       <c r="O3">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729521</v>
       </c>
       <c r="P3">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729522</v>
       </c>
       <c r="Q3">
-        <v>41.35956054243556</v>
+        <v>29.13355448540444</v>
       </c>
       <c r="R3">
-        <v>372.23604488192</v>
+        <v>262.20199036864</v>
       </c>
       <c r="S3">
-        <v>0.02324248164096052</v>
+        <v>0.02302736788049595</v>
       </c>
       <c r="T3">
-        <v>0.02324248164096053</v>
+        <v>0.02302736788049596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H4">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I4">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J4">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.027617666666667</v>
+        <v>3.028325666666666</v>
       </c>
       <c r="N4">
-        <v>9.082853000000002</v>
+        <v>9.084976999999999</v>
       </c>
       <c r="O4">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="P4">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="Q4">
-        <v>16.22615760720356</v>
+        <v>11.43233114953844</v>
       </c>
       <c r="R4">
-        <v>146.035418464832</v>
+        <v>102.890980345846</v>
       </c>
       <c r="S4">
-        <v>0.00911847624449039</v>
+        <v>0.009036195540230534</v>
       </c>
       <c r="T4">
-        <v>0.009118476244490392</v>
+        <v>0.009036195540230538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H5">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I5">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J5">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.454279333333333</v>
+        <v>2.980374</v>
       </c>
       <c r="N5">
-        <v>7.362838</v>
+        <v>8.941122</v>
       </c>
       <c r="O5">
-        <v>0.1008544102982193</v>
+        <v>0.1267250407446415</v>
       </c>
       <c r="P5">
-        <v>0.1008544102982194</v>
+        <v>0.1267250407446416</v>
       </c>
       <c r="Q5">
-        <v>13.15341884585245</v>
+        <v>11.251307246284</v>
       </c>
       <c r="R5">
-        <v>118.380769612672</v>
+        <v>101.261765216556</v>
       </c>
       <c r="S5">
-        <v>0.007391715289791778</v>
+        <v>0.008893112964519022</v>
       </c>
       <c r="T5">
-        <v>0.007391715289791779</v>
+        <v>0.008893112964519025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H6">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I6">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J6">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.220586</v>
+        <v>3.122590333333334</v>
       </c>
       <c r="N6">
-        <v>6.661758</v>
+        <v>9.367771000000001</v>
       </c>
       <c r="O6">
-        <v>0.0912511825792507</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="P6">
-        <v>0.09125118257925072</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="Q6">
-        <v>11.90096715746133</v>
+        <v>11.78819277198422</v>
       </c>
       <c r="R6">
-        <v>107.108704417152</v>
+        <v>106.093734947858</v>
       </c>
       <c r="S6">
-        <v>0.006687885631259671</v>
+        <v>0.009317471087940118</v>
       </c>
       <c r="T6">
-        <v>0.006687885631259672</v>
+        <v>0.009317471087940121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.359381333333334</v>
+        <v>3.775132666666666</v>
       </c>
       <c r="H7">
-        <v>16.078144</v>
+        <v>11.325398</v>
       </c>
       <c r="I7">
-        <v>0.07329094749485918</v>
+        <v>0.07017644588837949</v>
       </c>
       <c r="J7">
-        <v>0.07329094749485918</v>
+        <v>0.0701764458883795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.931205333333334</v>
+        <v>1.404043666666666</v>
       </c>
       <c r="N7">
-        <v>14.793616</v>
+        <v>4.212130999999999</v>
       </c>
       <c r="O7">
-        <v>0.2026394466180435</v>
+        <v>0.05969971918476983</v>
       </c>
       <c r="P7">
-        <v>0.2026394466180436</v>
+        <v>0.05969971918476984</v>
       </c>
       <c r="Q7">
-        <v>26.42820981430045</v>
+        <v>5.300451111459776</v>
       </c>
       <c r="R7">
-        <v>237.853888328704</v>
+        <v>47.70406000313799</v>
       </c>
       <c r="S7">
-        <v>0.01485163704247035</v>
+        <v>0.004189514112921451</v>
       </c>
       <c r="T7">
-        <v>0.01485163704247035</v>
+        <v>0.004189514112921452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I8">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J8">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.983958666666666</v>
+        <v>5.265869666666666</v>
       </c>
       <c r="N8">
-        <v>11.951876</v>
+        <v>15.797609</v>
       </c>
       <c r="O8">
-        <v>0.1637139654488446</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="P8">
-        <v>0.1637139654488447</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="Q8">
-        <v>9.605062732047555</v>
+        <v>12.69566597422522</v>
       </c>
       <c r="R8">
-        <v>86.445564588428</v>
+        <v>114.260993768027</v>
       </c>
       <c r="S8">
-        <v>0.005397675683251906</v>
+        <v>0.0100347443365636</v>
       </c>
       <c r="T8">
-        <v>0.005397675683251908</v>
+        <v>0.0100347443365636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I9">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J9">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>23.15168</v>
       </c>
       <c r="O9">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729521</v>
       </c>
       <c r="P9">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729522</v>
       </c>
       <c r="Q9">
         <v>18.60572672878222</v>
@@ -1013,10 +1013,10 @@
         <v>167.45154055904</v>
       </c>
       <c r="S9">
-        <v>0.01045570253259233</v>
+        <v>0.01470609823055709</v>
       </c>
       <c r="T9">
-        <v>0.01045570253259233</v>
+        <v>0.01470609823055709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I10">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J10">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.027617666666667</v>
+        <v>3.028325666666666</v>
       </c>
       <c r="N10">
-        <v>9.082853000000002</v>
+        <v>9.084976999999999</v>
       </c>
       <c r="O10">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="P10">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="Q10">
-        <v>7.299387380773225</v>
+        <v>7.301094322281221</v>
       </c>
       <c r="R10">
-        <v>65.69448642695902</v>
+        <v>65.709848900531</v>
       </c>
       <c r="S10">
-        <v>0.004101974850864554</v>
+        <v>0.005770836681586469</v>
       </c>
       <c r="T10">
-        <v>0.004101974850864555</v>
+        <v>0.005770836681586471</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I11">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J11">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.454279333333333</v>
+        <v>2.980374</v>
       </c>
       <c r="N11">
-        <v>7.362838</v>
+        <v>8.941122</v>
       </c>
       <c r="O11">
-        <v>0.1008544102982193</v>
+        <v>0.1267250407446415</v>
       </c>
       <c r="P11">
-        <v>0.1008544102982194</v>
+        <v>0.1267250407446416</v>
       </c>
       <c r="Q11">
-        <v>5.917106308323778</v>
+        <v>7.185486002774001</v>
       </c>
       <c r="R11">
-        <v>53.253956774914</v>
+        <v>64.669374024966</v>
       </c>
       <c r="S11">
-        <v>0.003325186073912004</v>
+        <v>0.00567945904674715</v>
       </c>
       <c r="T11">
-        <v>0.003325186073912005</v>
+        <v>0.005679459046747153</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I12">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J12">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.220586</v>
+        <v>3.122590333333334</v>
       </c>
       <c r="N12">
-        <v>6.661758</v>
+        <v>9.367771000000001</v>
       </c>
       <c r="O12">
-        <v>0.0912511825792507</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="P12">
-        <v>0.09125118257925072</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="Q12">
-        <v>5.353687027519333</v>
+        <v>7.528360243568113</v>
       </c>
       <c r="R12">
-        <v>48.183183247674</v>
+        <v>67.75524219211302</v>
       </c>
       <c r="S12">
-        <v>0.003008566116675646</v>
+        <v>0.005950469275981874</v>
       </c>
       <c r="T12">
-        <v>0.003008566116675647</v>
+        <v>0.005950469275981875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>7.232803000000001</v>
       </c>
       <c r="I13">
-        <v>0.03297016029422674</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="J13">
-        <v>0.03297016029422675</v>
+        <v>0.04481718067222087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.931205333333334</v>
+        <v>1.404043666666666</v>
       </c>
       <c r="N13">
-        <v>14.793616</v>
+        <v>4.212130999999999</v>
       </c>
       <c r="O13">
-        <v>0.2026394466180435</v>
+        <v>0.05969971918476983</v>
       </c>
       <c r="P13">
-        <v>0.2026394466180436</v>
+        <v>0.05969971918476984</v>
       </c>
       <c r="Q13">
-        <v>11.88881224284978</v>
+        <v>3.385057081465888</v>
       </c>
       <c r="R13">
-        <v>106.999310185648</v>
+        <v>30.465513733193</v>
       </c>
       <c r="S13">
-        <v>0.006681055036930297</v>
+        <v>0.00267557310078468</v>
       </c>
       <c r="T13">
-        <v>0.0066810550369303</v>
+        <v>0.002675573100784681</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H14">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I14">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J14">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.983958666666666</v>
+        <v>5.265869666666666</v>
       </c>
       <c r="N14">
-        <v>11.951876</v>
+        <v>15.797609</v>
       </c>
       <c r="O14">
-        <v>0.1637139654488446</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="P14">
-        <v>0.1637139654488447</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="Q14">
-        <v>76.9892349852831</v>
+        <v>72.93377283741978</v>
       </c>
       <c r="R14">
-        <v>692.903114867548</v>
+        <v>656.4039555367781</v>
       </c>
       <c r="S14">
-        <v>0.04326498776168244</v>
+        <v>0.05764737079648775</v>
       </c>
       <c r="T14">
-        <v>0.04326498776168245</v>
+        <v>0.05764737079648777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H15">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I15">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J15">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>23.15168</v>
       </c>
       <c r="O15">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729521</v>
       </c>
       <c r="P15">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729522</v>
       </c>
       <c r="Q15">
-        <v>149.1339210534044</v>
+        <v>106.8857553016178</v>
       </c>
       <c r="R15">
-        <v>1342.20528948064</v>
+        <v>961.97179771456</v>
       </c>
       <c r="S15">
-        <v>0.08380752543470064</v>
+        <v>0.08448325829064572</v>
       </c>
       <c r="T15">
-        <v>0.08380752543470066</v>
+        <v>0.08448325829064575</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H16">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I16">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J16">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.027617666666667</v>
+        <v>3.028325666666666</v>
       </c>
       <c r="N16">
-        <v>9.082853000000002</v>
+        <v>9.084976999999999</v>
       </c>
       <c r="O16">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="P16">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="Q16">
-        <v>58.50812909653546</v>
+        <v>41.94316043340378</v>
       </c>
       <c r="R16">
-        <v>526.5731618688192</v>
+        <v>377.488443900634</v>
       </c>
       <c r="S16">
-        <v>0.03287931734617736</v>
+        <v>0.03315217117961096</v>
       </c>
       <c r="T16">
-        <v>0.03287931734617736</v>
+        <v>0.03315217117961097</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H17">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I17">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J17">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.454279333333333</v>
+        <v>2.980374</v>
       </c>
       <c r="N17">
-        <v>7.362838</v>
+        <v>8.941122</v>
       </c>
       <c r="O17">
-        <v>0.1008544102982193</v>
+        <v>0.1267250407446415</v>
       </c>
       <c r="P17">
-        <v>0.1008544102982194</v>
+        <v>0.1267250407446416</v>
       </c>
       <c r="Q17">
-        <v>47.42847607694156</v>
+        <v>41.27901639163601</v>
       </c>
       <c r="R17">
-        <v>426.856284692474</v>
+        <v>371.511147524724</v>
       </c>
       <c r="S17">
-        <v>0.02665297865885242</v>
+        <v>0.03262722702344602</v>
       </c>
       <c r="T17">
-        <v>0.02665297865885243</v>
+        <v>0.03262722702344604</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H18">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I18">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J18">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.220586</v>
+        <v>3.122590333333334</v>
       </c>
       <c r="N18">
-        <v>6.661758</v>
+        <v>9.367771000000001</v>
       </c>
       <c r="O18">
-        <v>0.0912511825792507</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="P18">
-        <v>0.09125118257925072</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="Q18">
-        <v>42.91239735729267</v>
+        <v>43.2487525236869</v>
       </c>
       <c r="R18">
-        <v>386.211576215634</v>
+        <v>389.2387727131821</v>
       </c>
       <c r="S18">
-        <v>0.02411511618270555</v>
+        <v>0.0341841204180699</v>
       </c>
       <c r="T18">
-        <v>0.02411511618270556</v>
+        <v>0.03418412041806992</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.32480766666667</v>
+        <v>13.85028066666667</v>
       </c>
       <c r="H19">
-        <v>57.974423</v>
+        <v>41.550842</v>
       </c>
       <c r="I19">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409614</v>
       </c>
       <c r="J19">
-        <v>0.2642718209351624</v>
+        <v>0.2574647191409615</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.931205333333334</v>
+        <v>1.404043666666666</v>
       </c>
       <c r="N19">
-        <v>14.793616</v>
+        <v>4.212130999999999</v>
       </c>
       <c r="O19">
-        <v>0.2026394466180435</v>
+        <v>0.05969971918476983</v>
       </c>
       <c r="P19">
-        <v>0.2026394466180436</v>
+        <v>0.05969971918476984</v>
       </c>
       <c r="Q19">
-        <v>95.29459463150756</v>
+        <v>19.44639885158911</v>
       </c>
       <c r="R19">
-        <v>857.651351683568</v>
+        <v>175.017589664302</v>
       </c>
       <c r="S19">
-        <v>0.05355189555104401</v>
+        <v>0.01537057143270103</v>
       </c>
       <c r="T19">
-        <v>0.05355189555104402</v>
+        <v>0.01537057143270104</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H20">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I20">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J20">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.983958666666666</v>
+        <v>5.265869666666666</v>
       </c>
       <c r="N20">
-        <v>11.951876</v>
+        <v>15.797609</v>
       </c>
       <c r="O20">
-        <v>0.1637139654488446</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="P20">
-        <v>0.1637139654488447</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="Q20">
-        <v>1.62856262376</v>
+        <v>1.082223980994445</v>
       </c>
       <c r="R20">
-        <v>14.65706361384</v>
+        <v>9.74001582895</v>
       </c>
       <c r="S20">
-        <v>0.0009151895326610087</v>
+        <v>0.000855397502283456</v>
       </c>
       <c r="T20">
-        <v>0.000915189532661009</v>
+        <v>0.0008553975022834563</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H21">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I21">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J21">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>23.15168</v>
       </c>
       <c r="O21">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729521</v>
       </c>
       <c r="P21">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729522</v>
       </c>
       <c r="Q21">
-        <v>3.1546479168</v>
+        <v>1.586018700444444</v>
       </c>
       <c r="R21">
-        <v>28.3918312512</v>
+        <v>14.274168304</v>
       </c>
       <c r="S21">
-        <v>0.001772790748458001</v>
+        <v>0.001253600417991472</v>
       </c>
       <c r="T21">
-        <v>0.001772790748458002</v>
+        <v>0.001253600417991472</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H22">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I22">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J22">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.027617666666667</v>
+        <v>3.028325666666666</v>
       </c>
       <c r="N22">
-        <v>9.082853000000002</v>
+        <v>9.084976999999999</v>
       </c>
       <c r="O22">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="P22">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="Q22">
-        <v>1.23762954978</v>
+        <v>0.6223713965944444</v>
       </c>
       <c r="R22">
-        <v>11.13866594802</v>
+        <v>5.60134256935</v>
       </c>
       <c r="S22">
-        <v>0.0006955001869412504</v>
+        <v>0.0004919267614550179</v>
       </c>
       <c r="T22">
-        <v>0.0006955001869412506</v>
+        <v>0.0004919267614550181</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H23">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I23">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J23">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.454279333333333</v>
+        <v>2.980374</v>
       </c>
       <c r="N23">
-        <v>7.362838</v>
+        <v>8.941122</v>
       </c>
       <c r="O23">
-        <v>0.1008544102982193</v>
+        <v>0.1267250407446415</v>
       </c>
       <c r="P23">
-        <v>0.1008544102982194</v>
+        <v>0.1267250407446416</v>
       </c>
       <c r="Q23">
-        <v>1.00326030588</v>
+        <v>0.6125165299000001</v>
       </c>
       <c r="R23">
-        <v>9.02934275292</v>
+        <v>5.5126487691</v>
       </c>
       <c r="S23">
-        <v>0.0005637936896499526</v>
+        <v>0.0004841374049966459</v>
       </c>
       <c r="T23">
-        <v>0.0005637936896499527</v>
+        <v>0.0004841374049966461</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H24">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I24">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J24">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.220586</v>
+        <v>3.122590333333334</v>
       </c>
       <c r="N24">
-        <v>6.661758</v>
+        <v>9.367771000000001</v>
       </c>
       <c r="O24">
-        <v>0.0912511825792507</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="P24">
-        <v>0.09125118257925072</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="Q24">
-        <v>0.90773114508</v>
+        <v>0.6417443566722223</v>
       </c>
       <c r="R24">
-        <v>8.16958030572</v>
+        <v>5.775699210050001</v>
       </c>
       <c r="S24">
-        <v>0.0005101099769375734</v>
+        <v>0.0005072392863605747</v>
       </c>
       <c r="T24">
-        <v>0.0005101099769375735</v>
+        <v>0.0005072392863605749</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.40878</v>
+        <v>0.2055166666666667</v>
       </c>
       <c r="H25">
-        <v>1.22634</v>
+        <v>0.61655</v>
       </c>
       <c r="I25">
-        <v>0.005590173875221268</v>
+        <v>0.00382037679492415</v>
       </c>
       <c r="J25">
-        <v>0.005590173875221269</v>
+        <v>0.003820376794924151</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.931205333333334</v>
+        <v>1.404043666666666</v>
       </c>
       <c r="N25">
-        <v>14.793616</v>
+        <v>4.212130999999999</v>
       </c>
       <c r="O25">
-        <v>0.2026394466180435</v>
+        <v>0.05969971918476983</v>
       </c>
       <c r="P25">
-        <v>0.2026394466180436</v>
+        <v>0.05969971918476984</v>
       </c>
       <c r="Q25">
-        <v>2.01577811616</v>
+        <v>0.2885543742277777</v>
       </c>
       <c r="R25">
-        <v>18.14200304544</v>
+        <v>2.59698936805</v>
       </c>
       <c r="S25">
-        <v>0.001132789740573482</v>
+        <v>0.0002280754218369827</v>
       </c>
       <c r="T25">
-        <v>0.001132789740573482</v>
+        <v>0.0002280754218369828</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H26">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I26">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J26">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.983958666666666</v>
+        <v>5.265869666666666</v>
       </c>
       <c r="N26">
-        <v>11.951876</v>
+        <v>15.797609</v>
       </c>
       <c r="O26">
-        <v>0.1637139654488446</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="P26">
-        <v>0.1637139654488447</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="Q26">
-        <v>105.713458781176</v>
+        <v>149.3410712830629</v>
       </c>
       <c r="R26">
-        <v>951.4211290305839</v>
+        <v>1344.069641547566</v>
       </c>
       <c r="S26">
-        <v>0.05940689631851758</v>
+        <v>0.1180402408441209</v>
       </c>
       <c r="T26">
-        <v>0.05940689631851759</v>
+        <v>0.1180402408441209</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H27">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I27">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J27">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>23.15168</v>
       </c>
       <c r="O27">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729521</v>
       </c>
       <c r="P27">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729522</v>
       </c>
       <c r="Q27">
-        <v>204.77489637568</v>
+        <v>218.8620248293689</v>
       </c>
       <c r="R27">
-        <v>1842.97406738112</v>
+        <v>1969.75822346432</v>
       </c>
       <c r="S27">
-        <v>0.1150756126786705</v>
+        <v>0.1729900950926192</v>
       </c>
       <c r="T27">
-        <v>0.1150756126786705</v>
+        <v>0.1729900950926193</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H28">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I28">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J28">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.027617666666667</v>
+        <v>3.028325666666666</v>
       </c>
       <c r="N28">
-        <v>9.082853000000002</v>
+        <v>9.084976999999999</v>
       </c>
       <c r="O28">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="P28">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="Q28">
-        <v>80.33716265387802</v>
+        <v>85.88389532631086</v>
       </c>
       <c r="R28">
-        <v>723.0344638849022</v>
+        <v>772.9550579367979</v>
       </c>
       <c r="S28">
-        <v>0.04514639429386119</v>
+        <v>0.06788323936510259</v>
       </c>
       <c r="T28">
-        <v>0.04514639429386121</v>
+        <v>0.06788323936510261</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H29">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I29">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J29">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.454279333333333</v>
+        <v>2.980374</v>
       </c>
       <c r="N29">
-        <v>7.362838</v>
+        <v>8.941122</v>
       </c>
       <c r="O29">
-        <v>0.1008544102982193</v>
+        <v>0.1267250407446415</v>
       </c>
       <c r="P29">
-        <v>0.1008544102982194</v>
+        <v>0.1267250407446416</v>
       </c>
       <c r="Q29">
-        <v>65.123757259988</v>
+        <v>84.52397688489199</v>
       </c>
       <c r="R29">
-        <v>586.113815339892</v>
+        <v>760.715791964028</v>
       </c>
       <c r="S29">
-        <v>0.03659704582578011</v>
+        <v>0.06680835019379629</v>
       </c>
       <c r="T29">
-        <v>0.03659704582578011</v>
+        <v>0.06680835019379631</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H30">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I30">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J30">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.220586</v>
+        <v>3.122590333333334</v>
       </c>
       <c r="N30">
-        <v>6.661758</v>
+        <v>9.367771000000001</v>
       </c>
       <c r="O30">
-        <v>0.0912511825792507</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="P30">
-        <v>0.09125118257925072</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="Q30">
-        <v>58.92275653990799</v>
+        <v>88.55725930895045</v>
       </c>
       <c r="R30">
-        <v>530.304808859172</v>
+        <v>797.0153337805541</v>
       </c>
       <c r="S30">
-        <v>0.033112322015812</v>
+        <v>0.06999628519813166</v>
       </c>
       <c r="T30">
-        <v>0.033112322015812</v>
+        <v>0.06999628519813168</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>26.534778</v>
+        <v>28.36019133333333</v>
       </c>
       <c r="H31">
-        <v>79.60433399999999</v>
+        <v>85.080574</v>
       </c>
       <c r="I31">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466336</v>
       </c>
       <c r="J31">
-        <v>0.3628700591036647</v>
+        <v>0.5271913885466337</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.931205333333334</v>
+        <v>1.404043666666666</v>
       </c>
       <c r="N31">
-        <v>14.793616</v>
+        <v>4.212130999999999</v>
       </c>
       <c r="O31">
-        <v>0.2026394466180435</v>
+        <v>0.05969971918476983</v>
       </c>
       <c r="P31">
-        <v>0.2026394466180436</v>
+        <v>0.05969971918476984</v>
       </c>
       <c r="Q31">
-        <v>130.848438792416</v>
+        <v>39.81894702702155</v>
       </c>
       <c r="R31">
-        <v>1177.635949131744</v>
+        <v>358.3705232431939</v>
       </c>
       <c r="S31">
-        <v>0.07353178797102337</v>
+        <v>0.03147317785286291</v>
       </c>
       <c r="T31">
-        <v>0.07353178797102337</v>
+        <v>0.03147317785286292</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H32">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I32">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J32">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.983958666666666</v>
+        <v>5.265869666666666</v>
       </c>
       <c r="N32">
-        <v>11.951876</v>
+        <v>15.797609</v>
       </c>
       <c r="O32">
-        <v>0.1637139654488446</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="P32">
-        <v>0.1637139654488447</v>
+        <v>0.2239039624101892</v>
       </c>
       <c r="Q32">
-        <v>76.03806086965777</v>
+        <v>27.34467470608244</v>
       </c>
       <c r="R32">
-        <v>684.3425478269201</v>
+        <v>246.102072354742</v>
       </c>
       <c r="S32">
-        <v>0.04273046450684525</v>
+        <v>0.02161342462846108</v>
       </c>
       <c r="T32">
-        <v>0.04273046450684526</v>
+        <v>0.02161342462846108</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H33">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I33">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J33">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>23.15168</v>
       </c>
       <c r="O33">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729521</v>
       </c>
       <c r="P33">
-        <v>0.3171262268452842</v>
+        <v>0.3281352822729522</v>
       </c>
       <c r="Q33">
-        <v>147.2914254695111</v>
+        <v>40.07411238620444</v>
       </c>
       <c r="R33">
-        <v>1325.6228292256</v>
+        <v>360.66701147584</v>
       </c>
       <c r="S33">
-        <v>0.08277211380990222</v>
+        <v>0.03167486236064266</v>
       </c>
       <c r="T33">
-        <v>0.08277211380990224</v>
+        <v>0.03167486236064267</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H34">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I34">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J34">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.027617666666667</v>
+        <v>3.028325666666666</v>
       </c>
       <c r="N34">
-        <v>9.082853000000002</v>
+        <v>9.084976999999999</v>
       </c>
       <c r="O34">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="P34">
-        <v>0.1244147682103576</v>
+        <v>0.1287639381823815</v>
       </c>
       <c r="Q34">
-        <v>57.78528235100113</v>
+        <v>15.72552788065844</v>
       </c>
       <c r="R34">
-        <v>520.0675411590101</v>
+        <v>141.529750925926</v>
       </c>
       <c r="S34">
-        <v>0.03247310528802282</v>
+        <v>0.01242956865439589</v>
       </c>
       <c r="T34">
-        <v>0.03247310528802282</v>
+        <v>0.0124295686543959</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H35">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I35">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J35">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.454279333333333</v>
+        <v>2.980374</v>
       </c>
       <c r="N35">
-        <v>7.362838</v>
+        <v>8.941122</v>
       </c>
       <c r="O35">
-        <v>0.1008544102982193</v>
+        <v>0.1267250407446415</v>
       </c>
       <c r="P35">
-        <v>0.1008544102982194</v>
+        <v>0.1267250407446416</v>
       </c>
       <c r="Q35">
-        <v>46.8425144318289</v>
+        <v>15.476523858604</v>
       </c>
       <c r="R35">
-        <v>421.58262988646</v>
+        <v>139.288714727436</v>
       </c>
       <c r="S35">
-        <v>0.02632369076023308</v>
+        <v>0.01223275411113639</v>
       </c>
       <c r="T35">
-        <v>0.02632369076023308</v>
+        <v>0.01223275411113639</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H36">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I36">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J36">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.220586</v>
+        <v>3.122590333333334</v>
       </c>
       <c r="N36">
-        <v>6.661758</v>
+        <v>9.367771000000001</v>
       </c>
       <c r="O36">
-        <v>0.0912511825792507</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="P36">
-        <v>0.09125118257925072</v>
+        <v>0.1327720572050657</v>
       </c>
       <c r="Q36">
-        <v>42.38223022920667</v>
+        <v>16.21502663574422</v>
       </c>
       <c r="R36">
-        <v>381.4400720628601</v>
+        <v>145.935239721698</v>
       </c>
       <c r="S36">
-        <v>0.02381718265586025</v>
+        <v>0.01281647193858156</v>
       </c>
       <c r="T36">
-        <v>0.02381718265586026</v>
+        <v>0.01281647193858156</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>19.08605666666667</v>
+        <v>5.192812666666667</v>
       </c>
       <c r="H37">
-        <v>57.25817000000001</v>
+        <v>15.578438</v>
       </c>
       <c r="I37">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688036</v>
       </c>
       <c r="J37">
-        <v>0.2610068382968657</v>
+        <v>0.09652988895688037</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.931205333333334</v>
+        <v>1.404043666666666</v>
       </c>
       <c r="N37">
-        <v>14.793616</v>
+        <v>4.212130999999999</v>
       </c>
       <c r="O37">
-        <v>0.2026394466180435</v>
+        <v>0.05969971918476983</v>
       </c>
       <c r="P37">
-        <v>0.2026394466180436</v>
+        <v>0.05969971918476984</v>
       </c>
       <c r="Q37">
-        <v>94.1172644269689</v>
+        <v>7.290935736819777</v>
       </c>
       <c r="R37">
-        <v>847.0553798427201</v>
+        <v>65.618421631378</v>
       </c>
       <c r="S37">
-        <v>0.05289028127600203</v>
+        <v>0.005762807263662772</v>
       </c>
       <c r="T37">
-        <v>0.05289028127600204</v>
+        <v>0.005762807263662773</v>
       </c>
     </row>
   </sheetData>
